--- a/september-2019/plan/spiti-itinerary-detailed.xlsx
+++ b/september-2019/plan/spiti-itinerary-detailed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\mygithub\travel\september-2019\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE7546E-78AC-49D6-81EF-D3C1DEDBC58D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AF0BDA-A9A0-4B29-97F5-2F012AB9E269}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="959" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="959" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="18" r:id="rId1"/>
@@ -6232,7 +6232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -7207,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="180">
-        <v>43722</v>
+        <v>43736</v>
       </c>
       <c r="D3" s="121" t="s">
         <v>617</v>
@@ -7239,7 +7239,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="180">
-        <v>43723</v>
+        <v>43737</v>
       </c>
       <c r="D4" s="121" t="s">
         <v>623</v>
@@ -7271,7 +7271,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="180">
-        <v>43724</v>
+        <v>43738</v>
       </c>
       <c r="D5" s="121" t="s">
         <v>185</v>
@@ -7303,7 +7303,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="180">
-        <v>43725</v>
+        <v>43739</v>
       </c>
       <c r="D6" s="121" t="s">
         <v>184</v>
@@ -7335,7 +7335,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="180">
-        <v>43726</v>
+        <v>43740</v>
       </c>
       <c r="D7" s="121" t="s">
         <v>38</v>
@@ -7367,7 +7367,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="180">
-        <v>43727</v>
+        <v>43741</v>
       </c>
       <c r="D8" s="121" t="s">
         <v>96</v>
@@ -7399,7 +7399,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="180">
-        <v>43728</v>
+        <v>43742</v>
       </c>
       <c r="D9" s="121" t="s">
         <v>183</v>
@@ -7431,7 +7431,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="180">
-        <v>43729</v>
+        <v>43743</v>
       </c>
       <c r="D10" s="121" t="s">
         <v>214</v>
@@ -7480,9 +7480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:I92"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7590,7 +7590,7 @@
         <v>82</v>
       </c>
       <c r="C6" s="131">
-        <v>43722</v>
+        <v>43736</v>
       </c>
       <c r="D6" s="132" t="s">
         <v>623</v>
@@ -7967,7 +7967,7 @@
         <v>83</v>
       </c>
       <c r="C27" s="131">
-        <v>43723</v>
+        <v>43737</v>
       </c>
       <c r="D27" s="132" t="s">
         <v>185</v>
@@ -8284,7 +8284,7 @@
         <v>84</v>
       </c>
       <c r="C44" s="131">
-        <v>43724</v>
+        <v>43738</v>
       </c>
       <c r="D44" s="132" t="s">
         <v>184</v>
@@ -8495,7 +8495,7 @@
         <v>88</v>
       </c>
       <c r="C55" s="131">
-        <v>43725</v>
+        <v>43739</v>
       </c>
       <c r="D55" s="142" t="s">
         <v>38</v>
@@ -8653,7 +8653,7 @@
         <v>212</v>
       </c>
       <c r="C63" s="131">
-        <v>43726</v>
+        <v>43740</v>
       </c>
       <c r="D63" s="145" t="s">
         <v>96</v>
@@ -8697,7 +8697,7 @@
         <v>213</v>
       </c>
       <c r="C65" s="131">
-        <v>43727</v>
+        <v>43741</v>
       </c>
       <c r="D65" s="145" t="s">
         <v>183</v>
@@ -8957,7 +8957,7 @@
         <v>215</v>
       </c>
       <c r="C80" s="131">
-        <v>43728</v>
+        <v>43742</v>
       </c>
       <c r="D80" s="145" t="s">
         <v>214</v>
@@ -9157,7 +9157,7 @@
         <v>216</v>
       </c>
       <c r="C92" s="174">
-        <v>43729</v>
+        <v>43743</v>
       </c>
       <c r="D92" s="175" t="s">
         <v>617</v>
